--- a/仕様書/領地奪取仕様書.xlsx
+++ b/仕様書/領地奪取仕様書.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11496" windowHeight="9072" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11496" windowHeight="9072" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="目次" sheetId="1" r:id="rId1"/>
@@ -605,55 +605,440 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>78378</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>160019</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>10886</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>163286</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="30" name="グループ化 29"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="6728560" y="1808710"/>
+          <a:ext cx="4587635" cy="2358540"/>
+          <a:chOff x="6728560" y="1808710"/>
+          <a:chExt cx="4587635" cy="2358540"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="12" name="グループ化 11"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="6728560" y="1808710"/>
+            <a:ext cx="4587635" cy="2358540"/>
+            <a:chOff x="807720" y="106680"/>
+            <a:chExt cx="4651324" cy="2165671"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="13" name="正方形/長方形 12"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="807720" y="106680"/>
+              <a:ext cx="4651324" cy="2165671"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="14" name="正方形/長方形 13"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="868680" y="167640"/>
+              <a:ext cx="2087880" cy="525780"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+                  <a:latin typeface="HGS創英角ｺﾞｼｯｸUB" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="HGS創英角ｺﾞｼｯｸUB" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>テリトリー関係</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="楕円 5"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8121730" y="2659381"/>
+            <a:ext cx="1807919" cy="1124296"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="3">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="3">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+              <a:t>CTerritory</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>121920</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:rowOff>111529</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>434340</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>141514</xdr:rowOff>
+      <xdr:rowOff>169223</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="9" name="グループ化 8"/>
+        <xdr:cNvPr id="2" name="グループ化 1"/>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="121920" y="1732511"/>
+          <a:off x="121920" y="1760220"/>
           <a:ext cx="6297584" cy="5474821"/>
-          <a:chOff x="807720" y="106680"/>
-          <a:chExt cx="6347460" cy="6027420"/>
+          <a:chOff x="121920" y="1732511"/>
+          <a:chExt cx="6297584" cy="5474821"/>
         </a:xfrm>
       </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="9" name="グループ化 8"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="121920" y="1732511"/>
+            <a:ext cx="6297584" cy="5474821"/>
+            <a:chOff x="807720" y="106680"/>
+            <a:chExt cx="6347460" cy="6027420"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="7" name="正方形/長方形 6"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="807720" y="106680"/>
+              <a:ext cx="6347460" cy="6027420"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="8" name="正方形/長方形 7"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="868680" y="167640"/>
+              <a:ext cx="2087880" cy="525780"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+                  <a:latin typeface="HGS創英角ｺﾞｼｯｸUB" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="HGS創英角ｺﾞｼｯｸUB" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>キャラクター関係</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="7" name="正方形/長方形 6"/>
+          <xdr:cNvPr id="3" name="楕円 2"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="807720" y="106680"/>
-            <a:ext cx="6347460" cy="6027420"/>
+            <a:off x="2022269" y="2518559"/>
+            <a:ext cx="1857994" cy="931223"/>
           </a:xfrm>
-          <a:prstGeom prst="rect">
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="3">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="3">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+              <a:t>CCharacter</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="楕円 3"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4381996" y="1801091"/>
+            <a:ext cx="1493322" cy="957349"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="3">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="3">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+              <a:t>CModel</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="楕円 4"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4354781" y="3000499"/>
+            <a:ext cx="1585851" cy="1116677"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="3">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="3">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+              <a:t>CMotion</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10" name="左矢印 9"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="20188175">
+            <a:off x="3706783" y="2434062"/>
+            <a:ext cx="797310" cy="449282"/>
+          </a:xfrm>
+          <a:prstGeom prst="leftArrow">
             <a:avLst/>
           </a:prstGeom>
         </xdr:spPr>
         <xdr:style>
           <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
+            <a:schemeClr val="accent4">
               <a:shade val="50000"/>
             </a:schemeClr>
           </a:lnRef>
           <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent4"/>
           </a:fillRef>
           <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent4"/>
           </a:effectRef>
           <a:fontRef idx="minor">
             <a:schemeClr val="lt1"/>
@@ -670,377 +1055,29 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="8" name="正方形/長方形 7"/>
+          <xdr:cNvPr id="11" name="左矢印 10"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
-          <a:xfrm>
-            <a:off x="868680" y="167640"/>
-            <a:ext cx="2087880" cy="525780"/>
+          <a:xfrm rot="1488677">
+            <a:off x="3695897" y="3035744"/>
+            <a:ext cx="797310" cy="449283"/>
           </a:xfrm>
-          <a:prstGeom prst="rect">
+          <a:prstGeom prst="leftArrow">
             <a:avLst/>
           </a:prstGeom>
         </xdr:spPr>
         <xdr:style>
           <a:lnRef idx="2">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
-                <a:latin typeface="HGS創英角ｺﾞｼｯｸUB" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="HGS創英角ｺﾞｼｯｸUB" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>キャラクター関係</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>27214</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>163286</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>555172</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="楕円 2"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2051957" y="849086"/>
-          <a:ext cx="1877786" cy="903514"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="3">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
-            <a:t>CCharacter</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>391887</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>555173</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="楕円 3"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4441373" y="152400"/>
-          <a:ext cx="1513114" cy="929640"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="3">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
-            <a:t>CModel</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>364672</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>174172</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>620487</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>113212</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="楕円 4"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4414158" y="1317172"/>
-          <a:ext cx="1605643" cy="1082040"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="3">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
-            <a:t>CMotion</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>381692</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>78789</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>513984</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>57017</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="左矢印 9"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="20188175">
-          <a:off x="3756263" y="764589"/>
-          <a:ext cx="807207" cy="435428"/>
-        </a:xfrm>
-        <a:prstGeom prst="leftArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent4">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>370806</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>209417</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>503098</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>187645</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="左矢印 10"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="1488677">
-          <a:off x="3745377" y="1352417"/>
-          <a:ext cx="807207" cy="435428"/>
-        </a:xfrm>
-        <a:prstGeom prst="leftArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent4">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>78378</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>160019</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>10886</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>163286</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="12" name="グループ化 11"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="6728560" y="1808710"/>
-          <a:ext cx="4587635" cy="2358540"/>
-          <a:chOff x="807720" y="106680"/>
-          <a:chExt cx="4651324" cy="2165671"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="13" name="正方形/長方形 12"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="807720" y="106680"/>
-            <a:ext cx="4651324" cy="2165671"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
+            <a:schemeClr val="accent4">
               <a:shade val="50000"/>
             </a:schemeClr>
           </a:lnRef>
           <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent4"/>
           </a:fillRef>
           <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent4"/>
           </a:effectRef>
           <a:fontRef idx="minor">
             <a:schemeClr val="lt1"/>
@@ -1057,13 +1094,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="14" name="正方形/長方形 13"/>
+          <xdr:cNvPr id="15" name="正方形/長方形 14"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
-          <a:xfrm>
-            <a:off x="868680" y="167640"/>
-            <a:ext cx="2087880" cy="525780"/>
+          <a:xfrm rot="711047">
+            <a:off x="2272555" y="3275450"/>
+            <a:ext cx="178708" cy="1391546"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -1071,16 +1108,55 @@
         </xdr:spPr>
         <xdr:style>
           <a:lnRef idx="2">
-            <a:schemeClr val="dk1"/>
+            <a:schemeClr val="accent6">
+              <a:shade val="50000"/>
+            </a:schemeClr>
           </a:lnRef>
           <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
+            <a:schemeClr val="accent6"/>
           </a:fillRef>
           <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
+            <a:schemeClr val="accent6"/>
           </a:effectRef>
           <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="16" name="楕円 15"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="647700" y="4381006"/>
+            <a:ext cx="1848098" cy="931223"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="3">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="3">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
           </a:fontRef>
         </xdr:style>
         <xdr:txBody>
@@ -1089,402 +1165,174 @@
           <a:p>
             <a:pPr algn="ctr"/>
             <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
-                <a:latin typeface="HGS創英角ｺﾞｼｯｸUB" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="HGS創英角ｺﾞｼｯｸUB" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>テリトリー関係</a:t>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+              <a:t>CPlayer</a:t>
             </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="18" name="正方形/長方形 17"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="21002272">
+            <a:off x="3297448" y="3319351"/>
+            <a:ext cx="169428" cy="1179812"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="17" name="楕円 16"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2807029" y="4435434"/>
+            <a:ext cx="1850373" cy="931223"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="3">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="3">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+              <a:t>CEnemy</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="19" name="楕円 18"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3951020" y="5794170"/>
+            <a:ext cx="2262742" cy="1177636"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="3">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="3">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+              <a:t>CAIController</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="20" name="左矢印 19"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="4138481">
+            <a:off x="3925980" y="5379636"/>
+            <a:ext cx="827989" cy="435428"/>
+          </a:xfrm>
+          <a:prstGeom prst="leftArrow">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent4">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent4"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
     </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>141512</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>68581</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>619394</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>15241</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="楕円 5"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8240483" y="982981"/>
-          <a:ext cx="1827711" cy="1089660"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="3">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
-            <a:t>CTerritory</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>277500</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>213595</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>456208</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>191978</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="正方形/長方形 14"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="711047">
-          <a:off x="2302243" y="1585195"/>
-          <a:ext cx="178708" cy="1349983"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>141515</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>500743</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>130629</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="楕円 15"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="647700" y="2656115"/>
-          <a:ext cx="1877786" cy="903514"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="3">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
-            <a:t>CPlayer</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>637375</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>21969</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>141785</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>24145</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="正方形/長方形 17"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="21002272">
-          <a:off x="3337032" y="1622169"/>
-          <a:ext cx="179324" cy="1145176"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>146956</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>195943</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>674913</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>185057</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="楕円 16"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2846613" y="2710543"/>
-          <a:ext cx="1877786" cy="903514"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="3">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
-            <a:t>CEnemy</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>625929</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>141515</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>228598</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>141515</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="楕円 18"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4000500" y="4027715"/>
-          <a:ext cx="2302327" cy="1143000"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="3">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
-            <a:t>CAIController</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>132152</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>1755</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>567580</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>123162</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="左矢印 19"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="4138481">
-          <a:off x="3995748" y="3616645"/>
-          <a:ext cx="807207" cy="435428"/>
-        </a:xfrm>
-        <a:prstGeom prst="leftArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent4">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -1768,38 +1616,505 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>263435</xdr:colOff>
+      <xdr:colOff>263434</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>160019</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>65314</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>43543</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>290946</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>96982</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="26" name="グループ化 25"/>
+        <xdr:cNvPr id="31" name="グループ化 30"/>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11568744" y="1808710"/>
-          <a:ext cx="4457006" cy="3887488"/>
-          <a:chOff x="807721" y="106680"/>
-          <a:chExt cx="4417589" cy="3822103"/>
+          <a:off x="11568743" y="1808710"/>
+          <a:ext cx="8007730" cy="4411981"/>
+          <a:chOff x="11568743" y="1808710"/>
+          <a:chExt cx="8007730" cy="4411981"/>
         </a:xfrm>
       </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="26" name="グループ化 25"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="11568743" y="1808710"/>
+            <a:ext cx="8007730" cy="4411981"/>
+            <a:chOff x="807720" y="106680"/>
+            <a:chExt cx="7936910" cy="4337775"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="27" name="正方形/長方形 26"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="807720" y="106680"/>
+              <a:ext cx="7936910" cy="4337775"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="28" name="正方形/長方形 27"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="868680" y="167640"/>
+              <a:ext cx="2087880" cy="525780"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+                  <a:latin typeface="HGS創英角ｺﾞｼｯｸUB" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="HGS創英角ｺﾞｼｯｸUB" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>モード関係</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="27" name="正方形/長方形 26"/>
+          <xdr:cNvPr id="29" name="楕円 28"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="807721" y="106680"/>
-            <a:ext cx="4417589" cy="3822103"/>
+            <a:off x="11732822" y="4767251"/>
+            <a:ext cx="1798023" cy="1124297"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="3">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="3">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+              <a:t>CTitle</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="33" name="楕円 32"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13660584" y="4770221"/>
+            <a:ext cx="1798022" cy="1124297"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="3">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="3">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+              <a:t>CSelect</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="34" name="楕円 33"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="17637136" y="4794960"/>
+            <a:ext cx="1805642" cy="1124296"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="3">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="3">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+              <a:t>CResult</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="35" name="楕円 34"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="15673451" y="4789023"/>
+            <a:ext cx="1798023" cy="1124296"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="3">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="3">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+              <a:t>CGame</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>36814</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>173874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>554181</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>124692</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="32" name="グループ化 31"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="19987359" y="1822565"/>
+          <a:ext cx="5837513" cy="4425836"/>
+          <a:chOff x="16232778" y="1781001"/>
+          <a:chExt cx="5837513" cy="4425836"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="37" name="グループ化 36"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="16232778" y="1781001"/>
+            <a:ext cx="5837513" cy="4425836"/>
+            <a:chOff x="807720" y="106680"/>
+            <a:chExt cx="5918554" cy="4063915"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="38" name="正方形/長方形 37"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="807720" y="106680"/>
+              <a:ext cx="5918554" cy="4063915"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="39" name="正方形/長方形 38"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="868680" y="167640"/>
+              <a:ext cx="2289685" cy="525780"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+                  <a:latin typeface="HGS創英角ｺﾞｼｯｸUB" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="HGS創英角ｺﾞｼｯｸUB" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>オブジェクト関係</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="40" name="楕円 39"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="18139557" y="2567346"/>
+            <a:ext cx="1798022" cy="1124297"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="3">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="3">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+              <a:t>CObject</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="42" name="楕円 41"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="17848611" y="4714804"/>
+            <a:ext cx="2337460" cy="1076397"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="3">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="3">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+              <a:t>CObjectMove</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="43" name="正方形/長方形 42"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="18905299" y="3596265"/>
+            <a:ext cx="200119" cy="1179812"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -1807,15 +2122,15 @@
         </xdr:spPr>
         <xdr:style>
           <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
+            <a:schemeClr val="accent6">
               <a:shade val="50000"/>
             </a:schemeClr>
           </a:lnRef>
           <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent6"/>
           </a:fillRef>
           <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent6"/>
           </a:effectRef>
           <a:fontRef idx="minor">
             <a:schemeClr val="lt1"/>
@@ -1830,74 +2145,31 @@
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="28" name="正方形/長方形 27"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="868680" y="167640"/>
-            <a:ext cx="2087880" cy="525780"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
-                <a:latin typeface="HGS創英角ｺﾞｼｯｸUB" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="HGS創英角ｺﾞｼｯｸUB" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>モード関係</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>524494</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>112124</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>466305</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>187728</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>327462</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>58784</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>13854</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>134388</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="楕円 28"/>
+        <xdr:cNvPr id="44" name="楕円 43"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11829803" y="2938451"/>
-          <a:ext cx="1798023" cy="1124297"/>
+          <a:off x="14431687" y="2543001"/>
+          <a:ext cx="2207622" cy="1124296"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1924,7 +2196,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
-            <a:t>CTitle</a:t>
+            <a:t>CBaseMode</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
         </a:p>
@@ -1934,55 +2206,53 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>55420</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>101239</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>567508</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>15806</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>523406</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>47899</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>104189</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>92160</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="楕円 32"/>
+        <xdr:cNvPr id="45" name="正方形/長方形 44"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14020802" y="2927566"/>
-          <a:ext cx="1798022" cy="1124297"/>
+        <a:xfrm rot="2496271">
+          <a:off x="13867872" y="3077661"/>
+          <a:ext cx="201699" cy="2196099"/>
         </a:xfrm>
-        <a:prstGeom prst="ellipse">
+        <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0">
-          <a:schemeClr val="dk1"/>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
         </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="dk1"/>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
         </a:fillRef>
-        <a:effectRef idx="3">
-          <a:schemeClr val="dk1"/>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
-            <a:t>CSelect</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1990,55 +2260,53 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>69571</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>112124</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>478030</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>187467</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>545177</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>58784</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>17117</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>156919</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="楕円 33"/>
+        <xdr:cNvPr id="46" name="正方形/長方形 45"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14034953" y="4351615"/>
-          <a:ext cx="1805642" cy="1124296"/>
+        <a:xfrm rot="18929903">
+          <a:off x="17103485" y="3013794"/>
+          <a:ext cx="204105" cy="2324725"/>
         </a:xfrm>
-        <a:prstGeom prst="ellipse">
+        <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0">
-          <a:schemeClr val="dk1"/>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
         </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="dk1"/>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
         </a:fillRef>
-        <a:effectRef idx="3">
-          <a:schemeClr val="dk1"/>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
-            <a:t>CResult</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2046,55 +2314,53 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>502723</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>133896</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>604756</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>166157</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>305691</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>80556</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>97530</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>88868</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="楕円 34"/>
+        <xdr:cNvPr id="47" name="正方形/長方形 46"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11808032" y="4373387"/>
-          <a:ext cx="1798023" cy="1124296"/>
+        <a:xfrm rot="21304067">
+          <a:off x="15900174" y="3463539"/>
+          <a:ext cx="157792" cy="1571402"/>
         </a:xfrm>
-        <a:prstGeom prst="ellipse">
+        <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0">
-          <a:schemeClr val="dk1"/>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
         </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="dk1"/>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
         </a:fillRef>
-        <a:effectRef idx="3">
-          <a:schemeClr val="dk1"/>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
-            <a:t>CGame</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2102,305 +2368,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>272342</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>132309</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>405238</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>147046</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>166254</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="37" name="グループ化 36"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="16232778" y="1781000"/>
-          <a:ext cx="6170022" cy="7099763"/>
-          <a:chOff x="807720" y="106679"/>
-          <a:chExt cx="6255679" cy="6519182"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="38" name="正方形/長方形 37"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="807720" y="106679"/>
-            <a:ext cx="6255679" cy="6519182"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="39" name="正方形/長方形 38"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="868680" y="167640"/>
-            <a:ext cx="2289685" cy="525780"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
-                <a:latin typeface="HGS創英角ｺﾞｼｯｸUB" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="HGS創英角ｺﾞｼｯｸUB" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>オブジェクト関係</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>184066</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>212073</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>652052</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>158734</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>582284</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>69757</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="楕円 39"/>
+        <xdr:cNvPr id="48" name="正方形/長方形 47"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="18139557" y="2567346"/>
-          <a:ext cx="1798022" cy="1124297"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="3">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
-            <a:t>CObject</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>585847</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>225931</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>388814</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>172592</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="楕円 40"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="23196465" y="3523313"/>
-          <a:ext cx="1798022" cy="1124297"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="3">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
-            <a:t>CLoadText</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>558138</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>4259</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>235526</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>138546</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="楕円 41"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="17848611" y="4714804"/>
-          <a:ext cx="2337460" cy="1076397"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="3">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
-            <a:t>CObjectMove</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>284790</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>63356</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>484909</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>65532</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="43" name="正方形/長方形 42"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="18905299" y="3596265"/>
-          <a:ext cx="200119" cy="1179812"/>
+        <a:xfrm rot="529941">
+          <a:off x="15035638" y="3444428"/>
+          <a:ext cx="177046" cy="1571402"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2741,7 +2728,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F7:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M12" sqref="M12:M13"/>
     </sheetView>
   </sheetViews>
@@ -2827,8 +2814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="Z4" sqref="Z4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
